--- a/requirejs/doc/模板——上线资料.xlsx
+++ b/requirejs/doc/模板——上线资料.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28110" windowHeight="12630"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>课程名称</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>第三章</t>
-  </si>
-  <si>
-    <t>第四章</t>
   </si>
   <si>
     <t>导学台词</t>
@@ -88,30 +85,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>几何知识</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍需要用到的几何知识，如sin,cos,角度和弧度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出静态的时钟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用canvas，画出不带图片的时钟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>给时钟添加动画效果</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出动态的时钟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>requirejs和自动打包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -120,39 +93,103 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>3、使用r.js打包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、AMD规范</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、使用requirejs来模块化开发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果演示与介绍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程简介</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程主要讲解requirejs和打包优化，主要是工程实践，所以需要你对JavaScript有一定的基础。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过本课程的学习，你将学到如何用requirejs来进行模块化开发，以及如何用r.js来打包压缩。怎么避免手动打包动作，在部署的时候自动打包成jar包。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>学习requirejs和它的打包优化，以及使用maven插件自动打包成jar包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3、使用r.js打包</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、在部署时自动打包成jar，无需手动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、AMD规范</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、使用requirejs来模块化开发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果演示与介绍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程简介</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过本课程的学习，你将学到如何用requirejs来进行模块化开发，以及如何用r.js来打包压缩。怎么避免手动打包动作，在部署的时候自动打包成jar包。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程主要讲解requirejs和打包优化，主要是工程实践，所以需要你对JavaScript有一定的基础。</t>
+    <t>requirejs初步使用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍AMD规范，使用requirejs的最简单配置来加载模块，初步认识requirejs加载文件的过程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirejs定义模块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义简单的键值对和存在依赖的函数模块，怎么使用requirejs来处理jsonp请求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirejs配置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置模块路径，配置不支持AMD的库和插件，以及其他配置项</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六章</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七章</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirejs插件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载依赖的html，css文件，以及i18n多语言处理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirejs打包压缩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么使用r.js来打包文件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合maven自动打包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven插件+npm实现自动打包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、利用maven自动打包成jar，无需手动</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,70 +429,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFA53"/>
+  <dimension ref="A1:XFA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -819,346 +865,418 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="68.099999999999994" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="51" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="72" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="51" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="72" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="71.099999999999994" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="53.1" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="22" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="22" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="33" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="93" customHeight="1" thickBot="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
+      <c r="D13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" ht="54.95" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="18"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="56.1" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
+      <c r="D16" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="18"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
+      <c r="D17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" ht="42" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="18"/>
-      <c r="B19" s="6" t="s">
-        <v>13</v>
+      <c r="A19" s="16"/>
+      <c r="B19" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="42" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" ht="105.75" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="16"/>
+      <c r="B21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" ht="42" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="16"/>
+      <c r="B23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" ht="42" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="16"/>
+      <c r="B25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" spans="1:11" ht="42" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:11" ht="105.75" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="J27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="J21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:11">
       <c r="D28" s="3"/>
@@ -1316,12 +1434,76 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
+    <row r="54" spans="4:7">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="4:7">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="4:7">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="4:7">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="4:7">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="44">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="A13:A26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="A7:C11"/>
+    <mergeCell ref="D10:G10"/>
     <mergeCell ref="H13:K20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
@@ -1334,25 +1516,6 @@
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="A7:C11"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
